--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf8.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf8.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág. 33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte VIII-IX-X</t>
+          <t>Parte VIII, IX e X - Ilhas, mares fechados e acesso ao mar</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Os rochedos que, por si próprios, não se prestam à habitação humana ou à vida econômica não devem ter zona econômica exclusiva nem plataforma continental.</t>
+          <t>Rochedos que, por si próprios, não se prestam à habitação humana ou à vida econômica não devem ter zona econômica exclusiva nem plataforma continental.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Todas as formações insulares, inclusive rochedos inabitáveis e sem vida econômica, geram direito a zona econômica exclusiva e plataforma continental.</t>
+          <t>Todos os rochedos, independentemente de se prestarem à habitação humana ou vida econômica, geram direito à zona econômica exclusiva e plataforma continental.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 121, parágrafo 3º, cria uma exceção específica para rochedos sem vida econômica ou habitação humana.</t>
+          <t>Conforme o **art. 121, parágrafo 3º**, rochedos inabitáveis ou sem vida econômica própria não geram ZEE nem plataforma continental.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág. 33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte VIII-IX-X</t>
+          <t>Parte VIII, IX e X - Ilhas, mares fechados e acesso ao mar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Estados costeiros de mares fechados ou semifechados devem cooperar entre si para coordenar a gestão de recursos vivos e a proteção do meio marinho.</t>
+          <t>A definição de mar fechado ou semifechado exige que o corpo d'água seja rodeado por dois ou mais Estados.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Em mares fechados ou semifechados, a gestão de recursos e a proteção ambiental são de competência exclusiva e isolada de cada Estado, sendo vedada a coordenação regional.</t>
+          <t>Um mar fechado ou semifechado é definido como aquele rodeado por apenas um Estado e sem conexão com o oceano.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 123 impõe o dever de cooperação aos Estados costeiros de mares fechados ou semifechados.</t>
+          <t>De acordo com o **art. 122**, a definição estipula que o mar deve ser rodeado por dois ou mais Estados.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -551,27 +551,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág. 33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte VIII-IX-X</t>
+          <t>Parte VIII, IX e X - Ilhas, mares fechados e acesso ao mar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O termo "tráfego em trânsito" inclui a passagem de pessoas, bagagens, mercadorias e meios de transporte através do território de um Estado de trânsito.</t>
+          <t>Os Estados sem litoral gozam de liberdade de trânsito através do território dos Estados de trânsito por todos os meios de transporte.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>O "tráfego em trânsito" restringe-se exclusivamente ao transporte de cargas comerciais, não se aplicando à passagem de pessoas ou bagagens.</t>
+          <t>A liberdade de trânsito dos Estados sem litoral limita-se exclusivamente ao transporte ferroviário, excluindo outros meios.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 124 define tráfego em trânsito abrangendo pessoas, bagagens, mercadorias e meios de transporte.</t>
+          <t>Segundo o **art. 125, 1**, os Estados sem litoral gozam de liberdade de trânsito por todos os meios de transporte.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -585,27 +585,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág. 34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte VIII-IX-X</t>
+          <t>Parte VIII, IX e X - Ilhas, mares fechados e acesso ao mar</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O tráfego em trânsito não deve estar sujeito a direitos aduaneiros ou impostos, exceto taxas por serviços específicos prestados.</t>
+          <t>O tráfego em trânsito não deve estar sujeito a direitos aduaneiros ou impostos, exceto encargos por serviços específicos prestados.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Os Estados de trânsito podem cobrar impostos de importação sobre mercadorias em trânsito destinadas a Estados sem litoral para gerar receita fiscal.</t>
+          <t>O tráfego em trânsito está sujeito aos mesmos direitos aduaneiros e impostos aplicados às importações convencionais do Estado de trânsito.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 127 isenta o tráfego em trânsito de direitos aduaneiros, permitindo apenas taxas de serviço.</t>
+          <t>O texto do **art. 127, 1**, isenta o tráfego em trânsito de direitos aduaneiros, ressalvando apenas taxas por serviços prestados.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -619,27 +619,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág. 34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte VIII-IX-X</t>
+          <t>Parte VIII, IX e X - Ilhas, mares fechados e acesso ao mar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Para facilitar o tráfego em trânsito, podem ser estabelecidas zonas francas nos portos de entrada e saída dos Estados de trânsito, mediante acordo.</t>
+          <t>Podem ser estabelecidas zonas francas ou outras facilidades aduaneiras nos portos de entrada e de saída dos Estados de trânsito.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>É proibido o estabelecimento de zonas francas ou facilidades aduaneiras especiais para Estados sem litoral nos portos dos Estados de trânsito.</t>
+          <t>É expressamente proibido o estabelecimento de zonas francas nos portos de entrada dos Estados de trânsito para evitar concorrência desleal.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 128 prevê expressamente a possibilidade de estabelecer zonas francas mediante acordo.</t>
+          <t>Conforme o **art. 128**, zonas francas ou outras facilidades podem ser estabelecidas mediante acordo para facilitar o tráfego.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -653,27 +653,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág. 34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte VIII-IX-X</t>
+          <t>Parte VIII, IX e X - Ilhas, mares fechados e acesso ao mar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Os navios arvorando a bandeira de um Estado sem litoral devem gozar, nos portos marítimos, do mesmo tratamento concedido a outros navios estrangeiros.</t>
+          <t>Navios arvorando a bandeira de um Estado sem litoral devem gozar, nos portos marítimos, do mesmo tratamento concedido a outros navios estrangeiros.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Navios de Estados sem litoral têm acesso restrito aos portos marítimos e não gozam do mesmo tratamento dado aos navios de Estados costeiros.</t>
+          <t>Navios de Estados sem litoral possuem restrições específicas de atracação, não gozando do mesmo tratamento de outros navios estrangeiros.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 131 garante a igualdade de tratamento nos portos marítimos para navios de Estados sem litoral.</t>
+          <t>O **art. 131** determina a igualdade de tratamento nos portos marítimos para navios de Estados sem litoral.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
